--- a/exports/activity-2026-01-20.xlsx
+++ b/exports/activity-2026-01-20.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,210 +421,276 @@
       <c r="F1" t="str">
         <v>Description</v>
       </c>
+      <c r="G1" t="str">
+        <v>Source</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Destination</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>46042.52720802083</v>
+      <c r="A2" t="str">
+        <v>21/1/2026, 3:00:45 pm</v>
       </c>
       <c r="B2" t="str">
         <v>Mansi</v>
       </c>
       <c r="C2" t="str">
-        <v>warehouse</v>
+        <v>sales</v>
       </c>
       <c r="D2" t="str">
-        <v>GOOD_INVENTORY</v>
+        <v>CREATE_ORDER</v>
       </c>
       <c r="E2" t="str">
-        <v>Inventory</v>
+        <v>Order</v>
       </c>
       <c r="F2" t="str">
-        <v>Added spare part Head qty 500 at D</v>
+        <v>Created order ORD-2026-000018 for Back qty 100</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>46042.527922361114</v>
+      <c r="A3" t="str">
+        <v>21/1/2026, 3:00:50 pm</v>
       </c>
       <c r="B3" t="str">
         <v>Mansi</v>
       </c>
       <c r="C3" t="str">
-        <v>warehouse</v>
+        <v>sales</v>
       </c>
       <c r="D3" t="str">
-        <v>GOOD_INVENTORY</v>
+        <v>ORDER_UPDATE</v>
       </c>
       <c r="E3" t="str">
-        <v>Inventory</v>
+        <v>Order</v>
       </c>
       <c r="F3" t="str">
-        <v>Added spare part Head qty 50 at D</v>
+        <v>Order ORD-2026-000017 updated for Seat qty 10</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>46042.53311930555</v>
+      <c r="A4" t="str">
+        <v>21/1/2026, 3:00:59 pm</v>
       </c>
       <c r="B4" t="str">
         <v>Mansi</v>
       </c>
       <c r="C4" t="str">
-        <v>warehouse</v>
+        <v>sales</v>
       </c>
       <c r="D4" t="str">
-        <v>GOOD_INVENTORY</v>
+        <v>ORDER_UPDATE</v>
       </c>
       <c r="E4" t="str">
-        <v>Inventory</v>
+        <v>Order</v>
       </c>
       <c r="F4" t="str">
-        <v>Added spare part wed qty 10 at f</v>
+        <v>Order ORD-2026-000014 updated for wheel qty 10</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>20/1/2026, 1:17:34 pm</v>
+        <v>21/1/2026, 3:06:37 pm</v>
       </c>
       <c r="B5" t="str">
-        <v>Mansi</v>
+        <v>Production Manager</v>
       </c>
       <c r="C5" t="str">
-        <v>warehouse</v>
+        <v>production</v>
       </c>
       <c r="D5" t="str">
-        <v>DELETE_SPARE_PART</v>
+        <v>PRODUCTION_INWARD_CREATED</v>
       </c>
       <c r="E5" t="str">
-        <v>Inventory</v>
+        <v>Production</v>
       </c>
       <c r="F5" t="str">
-        <v>Deleted spare part back from B</v>
+        <v>Submitted inward Back qty 100 for warehouse approval</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>20/1/2026, 2:11:42 pm</v>
+        <v>21/1/2026, 3:10:49 pm</v>
       </c>
       <c r="B6" t="str">
-        <v>Warehouse</v>
+        <v>Production Manager</v>
       </c>
       <c r="C6" t="str">
-        <v>warehouse</v>
+        <v>production</v>
       </c>
       <c r="D6" t="str">
-        <v>INVENTORY_DELETE</v>
+        <v>PRODUCTION_INWARD_CREATED</v>
       </c>
       <c r="E6" t="str">
-        <v>Inventory</v>
+        <v>Production</v>
       </c>
       <c r="F6" t="str">
-        <v>Deleted inventory abcf</v>
+        <v>Submitted inward Seat qty 10 for warehouse approval</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>20/1/2026, 2:11:54 pm</v>
+        <v>21/1/2026, 3:59:20 pm</v>
       </c>
       <c r="B7" t="str">
-        <v>Warehouse</v>
+        <v>Mansi</v>
       </c>
       <c r="C7" t="str">
-        <v>warehouse</v>
+        <v>sales</v>
       </c>
       <c r="D7" t="str">
-        <v>GOOD_INVENTORY</v>
+        <v>CREATE_ORDER</v>
       </c>
       <c r="E7" t="str">
-        <v>Inventory</v>
+        <v>Order</v>
       </c>
       <c r="F7" t="str">
-        <v>Added spare part Head qty 100 at D</v>
+        <v>Created order ORD-2026-000020 for Back qty 10</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>20/1/2026, 2:20:58 pm</v>
+        <v>21/1/2026, 3:59:47 pm</v>
       </c>
       <c r="B8" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C8" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D8" t="str">
-        <v>ORDER_DELETE</v>
+        <v>INVENTORY_UPDATE</v>
       </c>
       <c r="E8" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F8" t="str">
-        <v>Deleted order ORD-2026-000008</v>
+        <v>Updated inventory Premium chairs</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>20/1/2026, 2:21:01 pm</v>
+        <v>21/1/2026, 4:00:11 pm</v>
       </c>
       <c r="B9" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C9" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D9" t="str">
-        <v>ORDER_DELETE</v>
+        <v>DELETE_SPARE_PART</v>
       </c>
       <c r="E9" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F9" t="str">
-        <v>Deleted order ORD-2026-000003</v>
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G9" t="str">
+        <v>A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>DELETED</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>20/1/2026, 2:21:25 pm</v>
+        <v>21/1/2026, 4:00:13 pm</v>
       </c>
       <c r="B10" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C10" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D10" t="str">
-        <v>CREATE_ORDER</v>
+        <v>DELETE_SPARE_PART</v>
       </c>
       <c r="E10" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F10" t="str">
-        <v>Created order ORD-2026-000008 for Office Chair qty 10</v>
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G10" t="str">
+        <v>A</v>
+      </c>
+      <c r="H10" t="str">
+        <v>DELETED</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>20/1/2026, 2:21:48 pm</v>
+        <v>21/1/2026, 4:00:16 pm</v>
       </c>
       <c r="B11" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C11" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D11" t="str">
-        <v>CREATE_ORDER</v>
+        <v>DELETE_SPARE_PART</v>
       </c>
       <c r="E11" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F11" t="str">
-        <v>Created order ORD-2026-000009 for sdf qty 100</v>
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G11" t="str">
+        <v>A</v>
+      </c>
+      <c r="H11" t="str">
+        <v>DELETED</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>20/1/2026, 2:32:55 pm</v>
+        <v>21/1/2026, 4:01:19 pm</v>
       </c>
       <c r="B12" t="str">
         <v>Warehouse</v>
@@ -633,18 +699,24 @@
         <v>warehouse</v>
       </c>
       <c r="D12" t="str">
-        <v>SPARE_UPDATE</v>
+        <v>PRODUCTION_INWARD_ACCEPTED</v>
       </c>
       <c r="E12" t="str">
-        <v>Inventory</v>
+        <v>Warehouse</v>
       </c>
       <c r="F12" t="str">
-        <v>Updated spare part back at D</v>
+        <v>Accepted production inward seats qty 800</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Production</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Warehouse</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>20/1/2026, 2:33:08 pm</v>
+        <v>21/1/2026, 4:08:24 pm</v>
       </c>
       <c r="B13" t="str">
         <v>Warehouse</v>
@@ -653,58 +725,76 @@
         <v>warehouse</v>
       </c>
       <c r="D13" t="str">
-        <v>WAREHOUSE_COLLECT</v>
+        <v>INVENTORY_UPDATE</v>
       </c>
       <c r="E13" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F13" t="str">
-        <v>Collected spare parts for order ORD-2026-000009</v>
+        <v>Updated inventory undefined</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>20/1/2026, 3:33:14 pm</v>
+        <v>21/1/2026, 4:09:01 pm</v>
       </c>
       <c r="B14" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C14" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D14" t="str">
-        <v>CREATE_ORDER</v>
+        <v>INVENTORY_UPDATE</v>
       </c>
       <c r="E14" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F14" t="str">
-        <v>Created order ORD-2026-000010 for Head qty 10</v>
+        <v>Updated Spare part abc at A</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>20/1/2026, 4:00:07 pm</v>
+        <v>21/1/2026, 4:10:24 pm</v>
       </c>
       <c r="B15" t="str">
-        <v>Mansi</v>
+        <v>Warehouse</v>
       </c>
       <c r="C15" t="str">
-        <v>sales</v>
+        <v>warehouse</v>
       </c>
       <c r="D15" t="str">
-        <v>CREATE_ORDER</v>
+        <v>DELETE_SPARE_PART</v>
       </c>
       <c r="E15" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F15" t="str">
-        <v>Created order ORD-2026-000011 for Plastic chair qty 10</v>
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G15" t="str">
+        <v>A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>DELETED</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>20/1/2026, 4:12:22 pm</v>
+        <v>21/1/2026, 4:10:38 pm</v>
       </c>
       <c r="B16" t="str">
         <v>Warehouse</v>
@@ -713,18 +803,24 @@
         <v>warehouse</v>
       </c>
       <c r="D16" t="str">
-        <v>PARTIAL_ACCEPT</v>
+        <v>INVENTORY_CREATE</v>
       </c>
       <c r="E16" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F16" t="str">
-        <v>Partial accepted order ORD-2026-000011, buildable qty 5</v>
+        <v>Created spare part xyz at A</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>20/1/2026, 4:12:33 pm</v>
+        <v>21/1/2026, 4:20:42 pm</v>
       </c>
       <c r="B17" t="str">
         <v>Warehouse</v>
@@ -733,18 +829,24 @@
         <v>warehouse</v>
       </c>
       <c r="D17" t="str">
-        <v>WAREHOUSE_COLLECT</v>
+        <v>TRANSFER</v>
       </c>
       <c r="E17" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F17" t="str">
-        <v>Collected spare parts for order ORD-2026-000010</v>
+        <v>Transferred 10 xyz from A to B</v>
+      </c>
+      <c r="G17" t="str">
+        <v>A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>B</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>20/1/2026, 5:29:47 pm</v>
+        <v>21/1/2026, 4:21:00 pm</v>
       </c>
       <c r="B18" t="str">
         <v>Warehouse</v>
@@ -753,18 +855,24 @@
         <v>warehouse</v>
       </c>
       <c r="D18" t="str">
-        <v>PARTIAL_ACCEPT</v>
+        <v>TRANSFER</v>
       </c>
       <c r="E18" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F18" t="str">
-        <v>Partial accepted order ORD-2026-000008, buildable qty 5</v>
+        <v>Transferred 5 xyz from B to A</v>
+      </c>
+      <c r="G18" t="str">
+        <v>B</v>
+      </c>
+      <c r="H18" t="str">
+        <v>A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>20/1/2026, 5:29:59 pm</v>
+        <v>21/1/2026, 4:21:39 pm</v>
       </c>
       <c r="B19" t="str">
         <v>Warehouse</v>
@@ -773,18 +881,622 @@
         <v>warehouse</v>
       </c>
       <c r="D19" t="str">
-        <v>WAREHOUSE_COLLECT</v>
+        <v>DELETE_SPARE_PART</v>
       </c>
       <c r="E19" t="str">
-        <v>Order</v>
+        <v>Inventory</v>
       </c>
       <c r="F19" t="str">
-        <v>Collected spare parts for order ORD-2026-000008</v>
+        <v>Deleted spare part undefined from B</v>
+      </c>
+      <c r="G19" t="str">
+        <v>B</v>
+      </c>
+      <c r="H19" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>21/1/2026, 4:21:42 pm</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C20" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D20" t="str">
+        <v>DELETE_SPARE_PART</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G20" t="str">
+        <v>A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>21/1/2026, 4:21:44 pm</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C21" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D21" t="str">
+        <v>DELETE_SPARE_PART</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Deleted spare part seats from A</v>
+      </c>
+      <c r="G21" t="str">
+        <v>A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21/1/2026, 4:21:46 pm</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C22" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D22" t="str">
+        <v>DELETE_SPARE_PART</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Deleted spare part undefined from A</v>
+      </c>
+      <c r="G22" t="str">
+        <v>A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>21/1/2026, 4:22:29 pm</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C23" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D23" t="str">
+        <v>INVENTORY_CREATE</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Created spare part xyz at A</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>21/1/2026, 4:22:33 pm</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C24" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D24" t="str">
+        <v>DELETE_SPARE_PART</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Deleted spare part xyz from A</v>
+      </c>
+      <c r="G24" t="str">
+        <v>A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>21/1/2026, 5:06:51 pm</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C25" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D25" t="str">
+        <v>INVENTORY_UPDATE</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Updated inventory Premium chairs</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>21/1/2026, 5:14:39 pm</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C26" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D26" t="str">
+        <v>DELETE_SPARE_PART</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Deleted spare part Head from A</v>
+      </c>
+      <c r="G26" t="str">
+        <v>A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>DELETED</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>21/1/2026, 5:49:16 pm</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C27" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Deleted order ORD-2026-000020</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>21/1/2026, 5:49:18 pm</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C28" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D28" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Deleted order ORD-2026-000019</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>21/1/2026, 5:49:20 pm</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C29" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D29" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Deleted order ORD-2026-000018</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>21/1/2026, 5:49:23 pm</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C30" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D30" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Deleted order ORD-2026-000017</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>21/1/2026, 5:49:24 pm</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C31" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D31" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Deleted order ORD-2026-000016</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>21/1/2026, 5:49:26 pm</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C32" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D32" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Deleted order ORD-2026-000015</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>21/1/2026, 5:49:28 pm</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C33" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D33" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Deleted order ORD-2026-000014</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>21/1/2026, 5:49:32 pm</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C34" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D34" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Deleted order ORD-2026-000011</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>21/1/2026, 5:49:34 pm</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C35" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D35" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Deleted order ORD-2026-000010</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>21/1/2026, 5:49:36 pm</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C36" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Deleted order ORD-2026-000009</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>21/1/2026, 5:49:42 pm</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C37" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D37" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Deleted order ORD-2026-000007</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>21/1/2026, 5:49:43 pm</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C38" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D38" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Deleted order ORD-2026-000006</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>21/1/2026, 5:49:46 pm</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C39" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D39" t="str">
+        <v>ORDER_DELETE</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Deleted order ORD-2026-000005</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>21/1/2026, 5:54:58 pm</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Mansi</v>
+      </c>
+      <c r="C40" t="str">
+        <v>sales</v>
+      </c>
+      <c r="D40" t="str">
+        <v>CREATE_ORDER</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Order</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Created order ORD-2026-000009</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>21/1/2026, 6:17:33 pm</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Admin</v>
+      </c>
+      <c r="C41" t="str">
+        <v>admin</v>
+      </c>
+      <c r="D41" t="str">
+        <v>INVENTORY_CREATE</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Created spare part abc at A</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>21/1/2026, 9:36:13 pm</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Warehouse</v>
+      </c>
+      <c r="C42" t="str">
+        <v>warehouse</v>
+      </c>
+      <c r="D42" t="str">
+        <v>TRANSFER</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Transferred 100 abc from A to B</v>
+      </c>
+      <c r="G42" t="str">
+        <v>A</v>
+      </c>
+      <c r="H42" t="str">
+        <v>B</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H42"/>
   </ignoredErrors>
 </worksheet>
 </file>